--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/GroupAvgMinMax.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/GroupAvgMinMax.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Group's name</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Group-1</t>
   </si>
   <si>
-    <t>6,62</t>
+    <t>6,5</t>
   </si>
   <si>
     <t>2</t>
@@ -41,7 +41,7 @@
     <t>Group-2</t>
   </si>
   <si>
-    <t>7</t>
+    <t>5</t>
   </si>
   <si>
     <t>Group-3</t>
@@ -50,19 +50,16 @@
     <t>6,83</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>3</t>
   </si>
   <si>
     <t>Group-4</t>
   </si>
   <si>
-    <t>3,75</t>
+    <t>4,14</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -179,21 +176,21 @@
         <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/GroupAvgMinMax.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/GroupAvgMinMax.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Group's name</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Group-1</t>
   </si>
   <si>
-    <t>6,5</t>
+    <t>6,62</t>
   </si>
   <si>
     <t>2</t>
@@ -41,7 +41,7 @@
     <t>Group-2</t>
   </si>
   <si>
-    <t>5</t>
+    <t>7</t>
   </si>
   <si>
     <t>Group-3</t>
@@ -50,16 +50,19 @@
     <t>6,83</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Group-4</t>
   </si>
   <si>
-    <t>4,14</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>3,75</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -176,21 +179,21 @@
         <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
